--- a/simplefly/bigtest/results.xlsx
+++ b/simplefly/bigtest/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabellahuang/Documents/Boulder/spring '20/independent study/fireflies/simplefly/bigtest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{28479296-F751-E443-91EF-F5BF6E381A4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9C0BC84A-467C-BA4F-B802-8CB11439BDC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="155">
   <si>
     <t>('commonsub_og', 0)</t>
   </si>
@@ -482,13 +482,16 @@
   </si>
   <si>
     <t>*all four</t>
+  </si>
+  <si>
+    <t>*these are really high -- lots of flashes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -626,6 +629,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -972,11 +982,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1332,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F3"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1357,7 +1370,7 @@
       <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="6">
         <v>16.6666666666666</v>
       </c>
       <c r="F1">
@@ -1375,10 +1388,10 @@
       <c r="K1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="6">
         <v>19</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1436,7 +1449,7 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>2.6666666666666599</v>
       </c>
       <c r="H3" t="s">
@@ -1480,7 +1493,7 @@
       <c r="H4" t="s">
         <v>134</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J4" t="s">
@@ -1503,7 +1516,7 @@
       <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -1518,7 +1531,7 @@
       <c r="H5" t="s">
         <v>103</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="J5" t="s">
@@ -1845,7 +1858,7 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C14" t="s">
@@ -2000,7 +2013,7 @@
       <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2105,6 +2118,11 @@
       </c>
       <c r="M20">
         <v>8.6666666666666607</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
